--- a/classfiers/greedy/elm/greedy_elm_tanh_results.xlsx
+++ b/classfiers/greedy/elm/greedy_elm_tanh_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6463768115942029</v>
+        <v>0.854066985645933</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9828326180257511</v>
+        <v>0.9953051643192489</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.138646288209607</v>
+        <v>0.4339622641509434</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.4835748792270531</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9764150943396226</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05434782608695654</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9952830188679245</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3586956521739131</v>
+        <v>0.5165876777251185</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9888227023827142</v>
+        <v>0.9868101691912482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3032496792492995</v>
+        <v>0.4795133613498096</v>
       </c>
     </row>
   </sheetData>
